--- a/imageCreationExcel/back/107/107_1.xlsx
+++ b/imageCreationExcel/back/107/107_1.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.042598897866883</v>
+        <v>1.002456517481565</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5106042813533417</v>
+        <v>0.7468436381372975</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9411490724516132</v>
+        <v>0.804077434199168</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_P_contrast1.043_gamma0.511_sharpness0.941.jpg</t>
+          <t>1_1_contrast1.002_gamma0.747_sharpness0.804.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8113153132606055</v>
+        <v>18.77861571573612</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.7068408439952731</v>
+        <v>1.167540136998261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5414224829422061</v>
+        <v>0.6529466543587934</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_S_contrast0.811_gamma0.707_sharpness0.541.jpg</t>
+          <t>2_I_brightness18.779_contrast1.168_gamma0.653.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23.69259657380076</v>
+        <v>0.8141807806940344</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.139371905010511</v>
+        <v>0.1792329577898335</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.4389552315637364</v>
+        <v>18.09396947043922</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_T_brightness23.693_contrast1.139_sharpness0.439.jpg</t>
+          <t>3_2_gamma0.814_sharpness0.179_equalization18.094.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>27.4820135275311</v>
+        <v>1.090859532528432</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8820894833524108</v>
+        <v>0.6228036860915966</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9277207533850581</v>
+        <v>23.47418507534855</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_P_brightness27.482_contrast0.882_gamma0.928.jpg</t>
+          <t>4_I_contrast1.091_gamma0.623_equalization23.474.jpg</t>
         </is>
       </c>
     </row>
@@ -654,24 +654,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8096639855963149</v>
+        <v>16.05103089623911</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.7374156478132139</v>
+        <v>1.110688097534403</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9023670025466888</v>
+        <v>0.8811868534607283</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_I_contrast0.81_gamma0.737_sharpness0.902.jpg</t>
+          <t>5_1_brightness16.051_contrast1.111_sharpness0.881.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8442591320110469</v>
+        <v>5.242017684173947</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.4123154581555966</v>
+        <v>0.6017702351240585</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>23.45975801157752</v>
+        <v>0.5397565050866604</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_2_contrast0.844_sharpness0.412_equalization23.46.jpg</t>
+          <t>6_1_brightness5.242_gamma0.602_sharpness0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15.84507166472685</v>
+        <v>1.133368379568073</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9978962320392437</v>
+        <v>0.7111644912129218</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.0171362659241734</v>
+        <v>24.27870143827779</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_3_brightness15.845_contrast0.998_sharpness0.017.jpg</t>
+          <t>7_8_contrast1.133_gamma0.711_equalization24.279.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>25.84946626691016</v>
+        <v>1.030301695551364</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.003916857814605</v>
+        <v>1.050539334021314</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.7937001632206729</v>
+        <v>9.852215291580471</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_8_brightness25.849_contrast1.004_gamma0.794.jpg</t>
+          <t>8_9_contrast1.03_gamma1.051_equalization9.852.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,30 +831,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.118787366436554</v>
+        <v>0.8916174784564828</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.6077050796834971</v>
+        <v>0.9538493965979387</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.5112811121683312</v>
+        <v>21.82162805730866</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_1_contrast1.119_gamma0.608_sharpness0.511.jpg</t>
+          <t>9_0_contrast0.892_sharpness0.954_equalization21.822.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8927835049112854</v>
+        <v>15.65299956738652</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9910433810593052</v>
+        <v>1.115661457177711</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>20.32117471605633</v>
+        <v>0.9721127575572128</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_2_contrast0.893_gamma0.991_equalization20.321.jpg</t>
+          <t>10_9_brightness15.653_contrast1.116_sharpness0.972.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28.62126137793905</v>
+        <v>0.9585222599583273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.004990340302451</v>
+        <v>0.2714494101710022</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.4727576531233451</v>
+        <v>26.30960822566563</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_0_brightness28.621_contrast1.005_sharpness0.473.jpg</t>
+          <t>11_8_contrast0.959_sharpness0.271_equalization26.31.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9291332928660094</v>
+        <v>0.5117709105462179</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9379839380242394</v>
+        <v>0.5412246474215826</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.2109164600654254</v>
+        <v>21.70912133595951</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_T_contrast0.929_gamma0.938_sharpness0.211.jpg</t>
+          <t>12_2_gamma0.512_sharpness0.541_equalization21.709.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.000706370223195</v>
+        <v>6.207056917000382</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9983408529999089</v>
+        <v>1.153528943528574</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.9100449007213658</v>
+        <v>0.9645670874155192</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_I_contrast1.001_gamma0.998_sharpness0.91.jpg</t>
+          <t>13_8_brightness6.207_contrast1.154_gamma0.965.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8.089608834539417</v>
+        <v>0.8496176496479086</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.129807991604142</v>
+        <v>0.7128229616111496</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.591670532820581</v>
+        <v>14.56476863601412</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_C_brightness8.09_contrast1.13_sharpness0.592.jpg</t>
+          <t>14_T_contrast0.85_gamma0.713_equalization14.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,30 +1083,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.171957140414053</v>
+        <v>1.172316108970149</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9489321747128241</v>
+        <v>0.7983898250227639</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6.335126508660926</v>
+        <v>0.5603526412521017</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_9_contrast1.172_sharpness0.949_equalization6.335.jpg</t>
+          <t>15_S_contrast1.172_gamma0.798_sharpness0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.150442306918767</v>
+        <v>8.193822401927928</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.4681576226577098</v>
+        <v>0.6593833477040606</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9.33556664483369</v>
+        <v>0.4096322604722571</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_7_contrast1.15_sharpness0.468_equalization9.336.jpg</t>
+          <t>16_3_brightness8.194_gamma0.659_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,15 +1167,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9927203510178124</v>
+        <v>0.9205715835678525</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8022983749397006</v>
+        <v>0.521601843179</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>16.98930682638184</v>
+        <v>17.36280835813783</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_1_contrast0.993_gamma0.802_equalization16.989.jpg</t>
+          <t>17_T_contrast0.921_sharpness0.522_equalization17.363.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25.99371930471276</v>
+        <v>0.7251138916033036</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.074480468095016</v>
+        <v>0.7637815567802251</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.4596610393805629</v>
+        <v>20.0907481095782</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_B_brightness25.994_contrast1.074_sharpness0.46.jpg</t>
+          <t>18_0_gamma0.725_sharpness0.764_equalization20.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9458672513158793</v>
+        <v>19.19779299486312</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.5129450168539549</v>
+        <v>0.7291336049956749</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>28.6710670200826</v>
+        <v>0.9268852801797771</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_1_contrast0.946_sharpness0.513_equalization28.671.jpg</t>
+          <t>19_2_brightness19.198_gamma0.729_sharpness0.927.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,15 +1293,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.797227131253017</v>
+        <v>19.98544889085316</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9292422843187262</v>
+        <v>1.174511419655517</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.7958004984034159</v>
+        <v>0.3182834141165167</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_1_brightness2.797_gamma0.929_sharpness0.796.jpg</t>
+          <t>20_7_brightness19.985_contrast1.175_sharpness0.318.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.0656033260533</v>
+        <v>11.9030879099466</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.3767216338145544</v>
+        <v>0.5612237037659835</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>28.4748766381011</v>
+        <v>0.8018764371266278</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_B_contrast1.066_sharpness0.377_equalization28.475.jpg</t>
+          <t>21_8_brightness11.903_gamma0.561_sharpness0.802.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8553817653059264</v>
+        <v>0.8578039081565227</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9866331616920463</v>
+        <v>1.093346577223532</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.7150858164507475</v>
+        <v>0.4938650101026973</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_B_contrast0.855_gamma0.987_sharpness0.715.jpg</t>
+          <t>22_8_contrast0.858_gamma1.093_sharpness0.494.jpg</t>
         </is>
       </c>
     </row>
@@ -1415,11 +1415,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.134897089148363</v>
+        <v>21.28227564688532</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.7169489612271929</v>
+        <v>0.6136323790045776</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.3746066456010929</v>
+        <v>0.9193462468672455</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_0_contrast1.135_gamma0.717_sharpness0.375.jpg</t>
+          <t>23_0_brightness21.282_gamma0.614_sharpness0.919.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.5718125678066405</v>
+        <v>17.7616337840576</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.883340263687601</v>
+        <v>0.5811935995928966</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>21.23642294505974</v>
+        <v>0.2914767709449727</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_B_gamma0.572_sharpness0.883_equalization21.236.jpg</t>
+          <t>24_7_brightness17.762_gamma0.581_sharpness0.291.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,30 +1503,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.161403384995296</v>
+        <v>0.8316819750977275</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.06457545444299</v>
+        <v>0.9647319351232686</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.7036186731682362</v>
+        <v>13.65575038342997</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_S_contrast1.161_gamma1.065_sharpness0.704.jpg</t>
+          <t>25_E_contrast0.832_sharpness0.965_equalization13.656.jpg</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>29.80338131547292</v>
+        <v>10.91347321995436</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.051849809079632</v>
+        <v>1.154684773972418</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.9984826158765014</v>
+        <v>0.7070222161515418</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_C_brightness29.803_contrast1.052_sharpness0.998.jpg</t>
+          <t>26_C_brightness10.913_contrast1.155_sharpness0.707.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,24 +1578,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9908219896475463</v>
+        <v>0.646037394464079</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.077323860289753</v>
+        <v>0.6592959349340688</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10.4402168078609</v>
+        <v>14.87572013674106</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_8_contrast0.991_gamma1.077_equalization10.44.jpg</t>
+          <t>27_T_gamma0.646_sharpness0.659_equalization14.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.162932518822845</v>
+        <v>1.025602741646889</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,22 +1637,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5271656242287927</v>
+        <v>0.5810104497683273</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>28.83393512501997</v>
+        <v>0.6134708296326532</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_2_contrast1.163_gamma0.527_equalization28.834.jpg</t>
+          <t>28_8_contrast1.026_gamma0.581_sharpness0.613.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9047720118964254</v>
+        <v>1.148964863048556</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.04021267929708296</v>
+        <v>0.5007659195133193</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>14.13559641581256</v>
+        <v>0.7531939314401765</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_2_gamma0.905_sharpness0.04_equalization14.136.jpg</t>
+          <t>29_1_contrast1.149_gamma0.501_sharpness0.753.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,15 +1713,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21.15978014662165</v>
+        <v>23.46246626831357</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9414028556212677</v>
+        <v>1.153722256178503</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.182577032539338</v>
+        <v>0.6271049363873406</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_P_brightness21.16_gamma0.941_sharpness0.183.jpg</t>
+          <t>30_8_brightness23.462_contrast1.154_sharpness0.627.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,24 +1746,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.5112362011968945</v>
+        <v>0.8178830989607579</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9619452693793358</v>
+        <v>0.6333164794312359</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>15.80535585233455</v>
+        <v>25.46462568767842</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_B_gamma0.511_sharpness0.962_equalization15.805.jpg</t>
+          <t>31_I_contrast0.818_gamma0.633_equalization25.465.jpg</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8773669228339114</v>
+        <v>0.8528723177306622</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.7025763042764054</v>
+        <v>0.7420288236189645</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.8401142509918089</v>
+        <v>0.7163274107858515</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_B_contrast0.877_gamma0.703_sharpness0.84.jpg</t>
+          <t>32_B_contrast0.853_gamma0.742_sharpness0.716.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.078510031286362</v>
+        <v>14.12502904528221</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.6163815002682212</v>
+        <v>1.067681030147496</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.9978618774412435</v>
+        <v>0.7134501931783841</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_S_contrast1.079_gamma0.616_sharpness0.998.jpg</t>
+          <t>33_T_brightness14.125_contrast1.068_gamma0.713.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9922545569750159</v>
+        <v>16.75003722357627</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.7245433910691194</v>
+        <v>0.6923754042492409</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.5194818520303206</v>
+        <v>0.03883402643002945</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_T_contrast0.992_gamma0.725_sharpness0.519.jpg</t>
+          <t>34_2_brightness16.75_gamma0.692_sharpness0.039.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>25.47562789864196</v>
+        <v>0.9465247264136409</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.022162600554382</v>
+        <v>0.9186462262447792</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.6511457650347516</v>
+        <v>6.412636093386446</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_0_brightness25.476_contrast1.022_gamma0.651.jpg</t>
+          <t>35_9_contrast0.947_sharpness0.919_equalization6.413.jpg</t>
         </is>
       </c>
     </row>
@@ -1965,30 +1965,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>29.18461009667306</v>
+        <v>6.510069479557598</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.006073766382334</v>
+        <v>0.7010659953633583</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.856450949387068</v>
+        <v>0.8866298965716627</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_E_brightness29.185_contrast1.006_gamma0.856.jpg</t>
+          <t>36_E_brightness6.51_gamma0.701_sharpness0.887.jpg</t>
         </is>
       </c>
     </row>
@@ -2003,34 +2003,34 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24.45403950778244</v>
+        <v>0.9703202899436697</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8992684148640867</v>
+        <v>0.9492959894657059</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.5665200751559939</v>
+        <v>23.61497182561313</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_B_brightness24.454_contrast0.899_gamma0.567.jpg</t>
+          <t>37_B_contrast0.97_gamma0.949_equalization23.615.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.127876466780252</v>
+        <v>1.024691585594861</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.6350911245044095</v>
+        <v>1.169996626101577</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>29.36662118453869</v>
+        <v>0.8006052644448556</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_C_contrast1.128_sharpness0.635_equalization29.367.jpg</t>
+          <t>38_0_brightness1.025_contrast1.17_sharpness0.801.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.845379592096689</v>
+        <v>29.81924517795765</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.8122589319863582</v>
+        <v>1.043560215667414</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.4214809108103272</v>
+        <v>1.037495082984876</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_I_brightness1.845_contrast0.812_sharpness0.421.jpg</t>
+          <t>39_C_brightness29.819_contrast1.044_gamma1.037.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,30 +2133,30 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>20.14320460379163</v>
+        <v>13.50219173423941</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.037076094198403</v>
+        <v>1.12660004388201</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.9012324816972068</v>
+        <v>1.057139532412696</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_9_brightness20.143_gamma1.037_sharpness0.901.jpg</t>
+          <t>40_7_brightness13.502_contrast1.127_gamma1.057.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.068644205442986</v>
+        <v>16.49523172671555</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.919830804991873</v>
+        <v>1.013016327449205</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>12.06807515745728</v>
+        <v>0.3136517092537225</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_1_contrast1.069_gamma0.92_equalization12.068.jpg</t>
+          <t>41_2_brightness16.495_contrast1.013_sharpness0.314.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.935846743187052</v>
+        <v>24.02152518688892</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.7991933607750892</v>
+        <v>0.8528214661964943</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>4.666514429573089</v>
+        <v>0.7838503035929147</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_P_contrast0.936_sharpness0.799_equalization4.667.jpg</t>
+          <t>42_9_brightness24.022_contrast0.853_sharpness0.784.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.004209299648498</v>
+        <v>1.176002510912743</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.1313988256252718</v>
+        <v>0.8549727818411522</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>10.25213548224853</v>
+        <v>0.3017395245899825</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_3_gamma1.004_sharpness0.131_equalization10.252.jpg</t>
+          <t>43_C_contrast1.176_gamma0.855_sharpness0.302.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.8420909418779927</v>
+        <v>1.02716504067003</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,22 +2309,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.097614827227311</v>
+        <v>0.7003627909733123</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.08345633395956155</v>
+        <v>5.42007076744861</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_S_contrast0.842_gamma1.098_sharpness0.083.jpg</t>
+          <t>44_E_contrast1.027_gamma0.7_equalization5.42.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>22.73962702137133</v>
+        <v>0.8672297181503698</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8430786979630919</v>
+        <v>0.6122918325527178</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.1060139549435048</v>
+        <v>29.08609070686184</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_C_brightness22.74_contrast0.843_sharpness0.106.jpg</t>
+          <t>45_3_gamma0.867_sharpness0.612_equalization29.086.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,24 +2376,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8379268501126633</v>
+        <v>0.6438423741430005</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.028643073006902</v>
+        <v>0.5855161506528692</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>12.78906679541178</v>
+        <v>18.83499290231314</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_2_contrast0.838_gamma1.029_equalization12.789.jpg</t>
+          <t>46_B_gamma0.644_sharpness0.586_equalization18.835.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,24 +2418,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>9.805269345066819</v>
+        <v>0.9864484435046479</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8889516997036103</v>
+        <v>0.7833881294781013</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.1076859303452737</v>
+        <v>0.7013079128158412</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_P_brightness9.805_contrast0.889_sharpness0.108.jpg</t>
+          <t>47_3_contrast0.986_gamma0.783_sharpness0.701.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.187568396636224</v>
+        <v>0.9611299352263949</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8938638326170744</v>
+        <v>1.027969287355045</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>4.916564798238007</v>
+        <v>19.688724866781</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_7_contrast1.188_gamma0.894_equalization4.917.jpg</t>
+          <t>48_0_contrast0.961_gamma1.028_equalization19.689.jpg</t>
         </is>
       </c>
     </row>
